--- a/source_data/0000_example/uptake/co2/A.xlsx
+++ b/source_data/0000_example/uptake/co2/A.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcxtsbl\Documents\Application_admin docs\Presentations\animation\combined\CO2_isotherms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcxtsbl\Documents\psd_uptake_correlator\source_data\0000_example\uptake\co2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,12 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Conc.</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -39,6 +33,12 @@
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Concentration</t>
   </si>
 </sst>
 </file>
@@ -358,27 +358,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G66" sqref="G64:G66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
